--- a/Documents/Detail Design/K0002/K0002-1-BookRoomPage.xlsx
+++ b/Documents/Detail Design/K0002/K0002-1-BookRoomPage.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Screen Layout" sheetId="1" r:id="rId1"/>
     <sheet name="Screen Item List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <t>Bản thiết kế chi tiết</t>
   </si>
@@ -93,18 +93,12 @@
     <t>Room 2</t>
   </si>
   <si>
-    <t>Room 3</t>
-  </si>
-  <si>
     <t>1 king size bed</t>
   </si>
   <si>
     <t>1 queen size bed</t>
   </si>
   <si>
-    <t>twin bed</t>
-  </si>
-  <si>
     <t>Night 1</t>
   </si>
   <si>
@@ -114,18 +108,9 @@
     <t>900$</t>
   </si>
   <si>
-    <t>1500$</t>
-  </si>
-  <si>
-    <t>500$</t>
-  </si>
-  <si>
     <t>Night 2</t>
   </si>
   <si>
-    <t>Night 3</t>
-  </si>
-  <si>
     <t>IMAGE</t>
   </si>
   <si>
@@ -181,13 +166,133 @@
   </si>
   <si>
     <t>注意：</t>
+  </si>
+  <si>
+    <t>#3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your reservation - from …. To …… </t>
+  </si>
+  <si>
+    <t>Anh Duong Hotel</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Reception is open</t>
+  </si>
+  <si>
+    <t>Check-in from</t>
+  </si>
+  <si>
+    <t>Check-out before</t>
+  </si>
+  <si>
+    <t>Spoken languages</t>
+  </si>
+  <si>
+    <t>Đảo Tuần Châu - Hạ Long</t>
+  </si>
+  <si>
+    <t>24/7</t>
+  </si>
+  <si>
+    <t>13h</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Classic room with city view</t>
+  </si>
+  <si>
+    <t>Bedding options: Double</t>
+  </si>
+  <si>
+    <t>Royal 3 day 2 night package with dinner</t>
+  </si>
+  <si>
+    <t>Breakfast included: Free Breakfast</t>
+  </si>
+  <si>
+    <t>150$</t>
+  </si>
+  <si>
+    <t>1200$</t>
+  </si>
+  <si>
+    <t>Not included: VAT</t>
+  </si>
+  <si>
+    <t>120$</t>
+  </si>
+  <si>
+    <t>The total amount is:</t>
+  </si>
+  <si>
+    <t>1320$</t>
+  </si>
+  <si>
+    <t>Guest Information</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Vietnam (+84)</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Name on card</t>
+  </si>
+  <si>
+    <t>Card number</t>
+  </si>
+  <si>
+    <t>Expiration date</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>#3.1 xuất hiện khi người dùng ấn button Next ở #3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +355,27 @@
       <u/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -440,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -496,6 +622,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,6 +725,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,21 +758,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3253,6 +3434,163 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>108238</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>135684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rounded Rectangle 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6036469" y="8691562"/>
+          <a:ext cx="858332" cy="266653"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Next</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2107406" y="7679531"/>
+          <a:ext cx="6750844" cy="130969"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2607469" y="4095750"/>
+          <a:ext cx="7774781" cy="1559719"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3519,10 +3857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC81"/>
+  <dimension ref="A1:CC88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BA28" sqref="BA28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AS24" sqref="AS24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12" customHeight="1"/>
@@ -3531,251 +3869,253 @@
     <col min="14" max="14" width="4.85546875" customWidth="1"/>
     <col min="21" max="21" width="3.85546875" customWidth="1"/>
     <col min="33" max="33" width="3.42578125" customWidth="1"/>
+    <col min="55" max="55" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="12" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="52" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="61" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="64" t="s">
+      <c r="T1" s="67"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="65" t="s">
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="69">
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="79">
         <v>42982</v>
       </c>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="66" t="s">
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="67" t="s">
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
     </row>
     <row r="2" spans="1:55" ht="12" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
     </row>
     <row r="3" spans="1:55" ht="12" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="61" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="62"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="64" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="65" t="s">
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="70"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="75"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
     </row>
     <row r="4" spans="1:55" ht="12" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="70"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="70"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="80"/>
     </row>
     <row r="6" spans="1:55" ht="12" customHeight="1">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="71" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="72"/>
     </row>
     <row r="7" spans="1:55" ht="12" customHeight="1">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="71" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
     </row>
     <row r="9" spans="1:55" ht="12" customHeight="1">
       <c r="B9" s="5"/>
@@ -3899,21 +4239,21 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
-      <c r="AZ11" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA11" s="75"/>
-      <c r="BB11" s="75"/>
-      <c r="BC11" s="75"/>
+      <c r="AZ11" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA11" s="74"/>
+      <c r="BB11" s="74"/>
+      <c r="BC11" s="74"/>
     </row>
     <row r="12" spans="1:55" ht="12" customHeight="1">
       <c r="B12" s="5"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
-      <c r="AZ12" s="75"/>
-      <c r="BA12" s="75"/>
-      <c r="BB12" s="75"/>
-      <c r="BC12" s="75"/>
+      <c r="AZ12" s="74"/>
+      <c r="BA12" s="74"/>
+      <c r="BB12" s="74"/>
+      <c r="BC12" s="74"/>
     </row>
     <row r="13" spans="1:55" ht="12" customHeight="1">
       <c r="B13" s="5"/>
@@ -3965,10 +4305,10 @@
       <c r="AK13" s="3"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
-      <c r="AZ13" s="75"/>
-      <c r="BA13" s="75"/>
-      <c r="BB13" s="75"/>
-      <c r="BC13" s="75"/>
+      <c r="AZ13" s="74"/>
+      <c r="BA13" s="74"/>
+      <c r="BB13" s="74"/>
+      <c r="BC13" s="74"/>
     </row>
     <row r="14" spans="1:55" ht="12" customHeight="1">
       <c r="B14" s="5"/>
@@ -4013,7 +4353,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -4052,7 +4392,7 @@
       <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
       <c r="AZ15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:55" ht="12" customHeight="1">
@@ -4096,10 +4436,10 @@
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
       <c r="AZ16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:53" ht="12" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:63" ht="12" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="26"/>
@@ -4140,10 +4480,10 @@
       <c r="AM17" s="5"/>
       <c r="AN17" s="5"/>
       <c r="BA17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:53" ht="12" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:63" ht="12" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="26"/>
@@ -4184,7 +4524,7 @@
       <c r="AM18" s="5"/>
       <c r="AN18" s="5"/>
     </row>
-    <row r="19" spans="2:53" ht="12" customHeight="1">
+    <row r="19" spans="2:63" ht="12" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="26"/>
@@ -4200,7 +4540,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
@@ -4227,13 +4567,13 @@
       <c r="AM19" s="5"/>
       <c r="AN19" s="5"/>
       <c r="AZ19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="BA19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:53" ht="12" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:63" ht="12" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="26"/>
@@ -4274,10 +4614,10 @@
       <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
       <c r="BA20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:53" ht="12" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:63" ht="12" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="26"/>
@@ -4318,7 +4658,7 @@
       <c r="AM21" s="5"/>
       <c r="AN21" s="5"/>
     </row>
-    <row r="22" spans="2:53" ht="12" customHeight="1">
+    <row r="22" spans="2:63" ht="12" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="26"/>
@@ -4359,7 +4699,7 @@
       <c r="AM22" s="5"/>
       <c r="AN22" s="5"/>
     </row>
-    <row r="23" spans="2:53" ht="12" customHeight="1">
+    <row r="23" spans="2:63" ht="12" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="26"/>
@@ -4400,7 +4740,7 @@
       <c r="AM23" s="5"/>
       <c r="AN23" s="5"/>
     </row>
-    <row r="24" spans="2:53" ht="12" customHeight="1">
+    <row r="24" spans="2:63" ht="12" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="28"/>
@@ -4441,11 +4781,11 @@
       <c r="AM24" s="5"/>
       <c r="AN24" s="5"/>
     </row>
-    <row r="25" spans="2:53" ht="12" customHeight="1">
+    <row r="25" spans="2:63" ht="12" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -4484,7 +4824,7 @@
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
     </row>
-    <row r="26" spans="2:53" ht="12" customHeight="1">
+    <row r="26" spans="2:63" ht="12" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="26"/>
@@ -4525,18 +4865,18 @@
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
     </row>
-    <row r="27" spans="2:53" ht="12" customHeight="1">
+    <row r="27" spans="2:63" ht="12" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -4566,7 +4906,7 @@
       <c r="AM27" s="5"/>
       <c r="AN27" s="5"/>
     </row>
-    <row r="28" spans="2:53" ht="12" customHeight="1">
+    <row r="28" spans="2:63" ht="12" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -4607,7 +4947,7 @@
       <c r="AM28" s="5"/>
       <c r="AN28" s="5"/>
     </row>
-    <row r="29" spans="2:53" ht="12" customHeight="1">
+    <row r="29" spans="2:63" ht="12" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
@@ -4648,7 +4988,7 @@
       <c r="AM29" s="5"/>
       <c r="AN29" s="5"/>
     </row>
-    <row r="30" spans="2:53" ht="12" customHeight="1">
+    <row r="30" spans="2:63" ht="12" customHeight="1">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -4689,7 +5029,7 @@
       <c r="AM30" s="5"/>
       <c r="AN30" s="5"/>
     </row>
-    <row r="31" spans="2:53" ht="12" customHeight="1">
+    <row r="31" spans="2:63" ht="12" customHeight="1">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
@@ -4729,8 +5069,26 @@
       <c r="AL31" s="5"/>
       <c r="AM31" s="5"/>
       <c r="AN31" s="5"/>
-    </row>
-    <row r="32" spans="2:53" ht="12" customHeight="1">
+      <c r="AV31" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW31" s="98"/>
+      <c r="AX31" s="98"/>
+      <c r="AY31" s="98"/>
+      <c r="AZ31" s="98"/>
+      <c r="BA31" s="98"/>
+      <c r="BB31" s="98"/>
+      <c r="BC31" s="98"/>
+      <c r="BD31" s="98"/>
+      <c r="BE31" s="98"/>
+      <c r="BF31" s="98"/>
+      <c r="BG31" s="98"/>
+      <c r="BH31" s="98"/>
+      <c r="BI31" s="98"/>
+      <c r="BJ31" s="98"/>
+      <c r="BK31" s="98"/>
+    </row>
+    <row r="32" spans="2:63" ht="12" customHeight="1">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
@@ -4771,7 +5129,7 @@
       <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
     </row>
-    <row r="33" spans="2:40" ht="12" customHeight="1">
+    <row r="33" spans="2:81" ht="12" customHeight="1">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="4"/>
@@ -4812,7 +5170,7 @@
       <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
     </row>
-    <row r="34" spans="2:40" ht="12" customHeight="1">
+    <row r="34" spans="2:81" ht="12" customHeight="1">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="4"/>
@@ -4853,7 +5211,7 @@
       <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
     </row>
-    <row r="35" spans="2:40" ht="12" customHeight="1">
+    <row r="35" spans="2:81" ht="12" customHeight="1">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="4"/>
@@ -4894,9 +5252,9 @@
       <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
     </row>
-    <row r="36" spans="2:40" ht="12" customHeight="1">
+    <row r="36" spans="2:81" ht="12" customHeight="1">
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4931,14 +5289,50 @@
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="3"/>
-    </row>
-    <row r="37" spans="2:40" ht="12" customHeight="1">
+      <c r="AV36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
+      <c r="BQ36" s="2"/>
+      <c r="BR36" s="2"/>
+      <c r="BS36" s="2"/>
+      <c r="BT36" s="2"/>
+      <c r="BU36" s="2"/>
+      <c r="BV36" s="2"/>
+      <c r="BW36" s="2"/>
+      <c r="BX36" s="2"/>
+      <c r="BY36" s="2"/>
+      <c r="BZ36" s="2"/>
+      <c r="CA36" s="2"/>
+      <c r="CB36" s="2"/>
+      <c r="CC36" s="3"/>
+    </row>
+    <row r="37" spans="2:81" ht="12" customHeight="1">
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="32"/>
       <c r="H37" s="33" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
@@ -4968,13 +5362,49 @@
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
       <c r="AK37" s="3"/>
-    </row>
-    <row r="38" spans="2:40" ht="12" customHeight="1">
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX37" s="36"/>
+      <c r="AY37" s="36"/>
+      <c r="AZ37" s="36"/>
+      <c r="BA37" s="36"/>
+      <c r="BB37" s="36"/>
+      <c r="BC37" s="36"/>
+      <c r="BD37" s="36"/>
+      <c r="BE37" s="36"/>
+      <c r="BF37" s="36"/>
+      <c r="BG37" s="36"/>
+      <c r="BH37" s="36"/>
+      <c r="BI37" s="36"/>
+      <c r="BJ37" s="36"/>
+      <c r="BK37" s="36"/>
+      <c r="BL37" s="36"/>
+      <c r="BM37" s="36"/>
+      <c r="BN37" s="36"/>
+      <c r="BO37" s="36"/>
+      <c r="BP37" s="36"/>
+      <c r="BQ37" s="36"/>
+      <c r="BR37" s="36"/>
+      <c r="BS37" s="36"/>
+      <c r="BT37" s="36"/>
+      <c r="BU37" s="5"/>
+      <c r="BV37" s="5"/>
+      <c r="BW37" s="5"/>
+      <c r="BX37" s="5"/>
+      <c r="BY37" s="5"/>
+      <c r="BZ37" s="5"/>
+      <c r="CA37" s="5"/>
+      <c r="CB37" s="5"/>
+      <c r="CC37" s="6"/>
+    </row>
+    <row r="38" spans="2:81" ht="12" customHeight="1">
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -4999,7 +5429,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
@@ -5011,8 +5441,42 @@
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
       <c r="AK38" s="6"/>
-    </row>
-    <row r="39" spans="2:40" ht="12" customHeight="1">
+      <c r="AV38" s="7"/>
+      <c r="AW38" s="37"/>
+      <c r="AX38" s="37"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BB38" s="37"/>
+      <c r="BC38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BE38" s="37"/>
+      <c r="BF38" s="37"/>
+      <c r="BG38" s="37"/>
+      <c r="BH38" s="37"/>
+      <c r="BI38" s="37"/>
+      <c r="BJ38" s="37"/>
+      <c r="BK38" s="37"/>
+      <c r="BL38" s="37"/>
+      <c r="BM38" s="37"/>
+      <c r="BN38" s="37"/>
+      <c r="BO38" s="37"/>
+      <c r="BP38" s="37"/>
+      <c r="BQ38" s="37"/>
+      <c r="BR38" s="37"/>
+      <c r="BS38" s="37"/>
+      <c r="BT38" s="37"/>
+      <c r="BU38" s="8"/>
+      <c r="BV38" s="8"/>
+      <c r="BW38" s="8"/>
+      <c r="BX38" s="8"/>
+      <c r="BY38" s="8"/>
+      <c r="BZ38" s="8"/>
+      <c r="CA38" s="8"/>
+      <c r="CB38" s="8"/>
+      <c r="CC38" s="9"/>
+    </row>
+    <row r="39" spans="2:81" ht="12" customHeight="1">
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -5037,7 +5501,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
@@ -5049,8 +5513,44 @@
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="6"/>
-    </row>
-    <row r="40" spans="2:40" ht="12" customHeight="1">
+      <c r="AV39" s="23"/>
+      <c r="AW39" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX39" s="38"/>
+      <c r="AY39" s="38"/>
+      <c r="AZ39" s="38"/>
+      <c r="BA39" s="38"/>
+      <c r="BB39" s="38"/>
+      <c r="BC39" s="38"/>
+      <c r="BD39" s="38"/>
+      <c r="BE39" s="24"/>
+      <c r="BF39" s="24"/>
+      <c r="BG39" s="24"/>
+      <c r="BH39" s="24"/>
+      <c r="BI39" s="24"/>
+      <c r="BJ39" s="24"/>
+      <c r="BK39" s="24"/>
+      <c r="BL39" s="24"/>
+      <c r="BM39" s="24"/>
+      <c r="BN39" s="24"/>
+      <c r="BO39" s="24"/>
+      <c r="BP39" s="24"/>
+      <c r="BQ39" s="24"/>
+      <c r="BR39" s="24"/>
+      <c r="BS39" s="24"/>
+      <c r="BT39" s="24"/>
+      <c r="BU39" s="24"/>
+      <c r="BV39" s="24"/>
+      <c r="BW39" s="24"/>
+      <c r="BX39" s="24"/>
+      <c r="BY39" s="24"/>
+      <c r="BZ39" s="24"/>
+      <c r="CA39" s="24"/>
+      <c r="CB39" s="24"/>
+      <c r="CC39" s="25"/>
+    </row>
+    <row r="40" spans="2:81" ht="12" customHeight="1">
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -5085,8 +5585,42 @@
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="6"/>
-    </row>
-    <row r="41" spans="2:40" ht="12" customHeight="1">
+      <c r="AV40" s="26"/>
+      <c r="AW40" s="39"/>
+      <c r="AX40" s="39"/>
+      <c r="AY40" s="39"/>
+      <c r="AZ40" s="39"/>
+      <c r="BA40" s="39"/>
+      <c r="BB40" s="39"/>
+      <c r="BC40" s="39"/>
+      <c r="BD40" s="39"/>
+      <c r="BE40" s="22"/>
+      <c r="BF40" s="22"/>
+      <c r="BG40" s="22"/>
+      <c r="BH40" s="22"/>
+      <c r="BI40" s="22"/>
+      <c r="BJ40" s="22"/>
+      <c r="BK40" s="22"/>
+      <c r="BL40" s="22"/>
+      <c r="BM40" s="22"/>
+      <c r="BN40" s="22"/>
+      <c r="BO40" s="22"/>
+      <c r="BP40" s="22"/>
+      <c r="BQ40" s="22"/>
+      <c r="BR40" s="22"/>
+      <c r="BS40" s="22"/>
+      <c r="BT40" s="22"/>
+      <c r="BU40" s="22"/>
+      <c r="BV40" s="22"/>
+      <c r="BW40" s="22"/>
+      <c r="BX40" s="22"/>
+      <c r="BY40" s="22"/>
+      <c r="BZ40" s="22"/>
+      <c r="CA40" s="22"/>
+      <c r="CB40" s="22"/>
+      <c r="CC40" s="27"/>
+    </row>
+    <row r="41" spans="2:81" ht="12" customHeight="1">
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -5121,8 +5655,46 @@
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="9"/>
-    </row>
-    <row r="42" spans="2:40" ht="12" customHeight="1">
+      <c r="AV41" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW41" s="22"/>
+      <c r="AX41" s="22"/>
+      <c r="AY41" s="22"/>
+      <c r="AZ41" s="22"/>
+      <c r="BA41" s="22"/>
+      <c r="BB41" s="22"/>
+      <c r="BC41" s="22"/>
+      <c r="BD41" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE41" s="22"/>
+      <c r="BF41" s="22"/>
+      <c r="BG41" s="22"/>
+      <c r="BH41" s="22"/>
+      <c r="BI41" s="22"/>
+      <c r="BJ41" s="22"/>
+      <c r="BK41" s="22"/>
+      <c r="BL41" s="22"/>
+      <c r="BM41" s="22"/>
+      <c r="BN41" s="22"/>
+      <c r="BO41" s="22"/>
+      <c r="BP41" s="22"/>
+      <c r="BQ41" s="22"/>
+      <c r="BR41" s="22"/>
+      <c r="BS41" s="22"/>
+      <c r="BT41" s="22"/>
+      <c r="BU41" s="22"/>
+      <c r="BV41" s="22"/>
+      <c r="BW41" s="22"/>
+      <c r="BX41" s="22"/>
+      <c r="BY41" s="22"/>
+      <c r="BZ41" s="22"/>
+      <c r="CA41" s="22"/>
+      <c r="CB41" s="22"/>
+      <c r="CC41" s="27"/>
+    </row>
+    <row r="42" spans="2:81" ht="12" customHeight="1">
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -5133,7 +5705,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -5158,13 +5730,51 @@
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
       <c r="AK42" s="3"/>
-    </row>
-    <row r="43" spans="2:40" ht="12" customHeight="1">
+      <c r="AV42" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW42" s="22"/>
+      <c r="AX42" s="22"/>
+      <c r="AY42" s="22"/>
+      <c r="AZ42" s="22"/>
+      <c r="BA42" s="22"/>
+      <c r="BB42" s="22"/>
+      <c r="BC42" s="22"/>
+      <c r="BD42" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE42" s="22"/>
+      <c r="BF42" s="22"/>
+      <c r="BG42" s="22"/>
+      <c r="BH42" s="22"/>
+      <c r="BI42" s="22"/>
+      <c r="BJ42" s="22"/>
+      <c r="BK42" s="22"/>
+      <c r="BL42" s="22"/>
+      <c r="BM42" s="22"/>
+      <c r="BN42" s="22"/>
+      <c r="BO42" s="22"/>
+      <c r="BP42" s="22"/>
+      <c r="BQ42" s="22"/>
+      <c r="BR42" s="22"/>
+      <c r="BS42" s="22"/>
+      <c r="BT42" s="22"/>
+      <c r="BU42" s="22"/>
+      <c r="BV42" s="22"/>
+      <c r="BW42" s="22"/>
+      <c r="BX42" s="22"/>
+      <c r="BY42" s="22"/>
+      <c r="BZ42" s="22"/>
+      <c r="CA42" s="22"/>
+      <c r="CB42" s="22"/>
+      <c r="CC42" s="27"/>
+    </row>
+    <row r="43" spans="2:81" ht="12" customHeight="1">
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -5189,7 +5799,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
@@ -5201,8 +5811,46 @@
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
       <c r="AK43" s="6"/>
-    </row>
-    <row r="44" spans="2:40" ht="12" customHeight="1">
+      <c r="AV43" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW43" s="22"/>
+      <c r="AX43" s="22"/>
+      <c r="AY43" s="22"/>
+      <c r="AZ43" s="22"/>
+      <c r="BA43" s="22"/>
+      <c r="BB43" s="22"/>
+      <c r="BC43" s="22"/>
+      <c r="BD43" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE43" s="22"/>
+      <c r="BF43" s="22"/>
+      <c r="BG43" s="22"/>
+      <c r="BH43" s="22"/>
+      <c r="BI43" s="22"/>
+      <c r="BJ43" s="22"/>
+      <c r="BK43" s="22"/>
+      <c r="BL43" s="22"/>
+      <c r="BM43" s="22"/>
+      <c r="BN43" s="22"/>
+      <c r="BO43" s="22"/>
+      <c r="BP43" s="22"/>
+      <c r="BQ43" s="22"/>
+      <c r="BR43" s="22"/>
+      <c r="BS43" s="22"/>
+      <c r="BT43" s="22"/>
+      <c r="BU43" s="22"/>
+      <c r="BV43" s="22"/>
+      <c r="BW43" s="22"/>
+      <c r="BX43" s="22"/>
+      <c r="BY43" s="22"/>
+      <c r="BZ43" s="22"/>
+      <c r="CA43" s="22"/>
+      <c r="CB43" s="22"/>
+      <c r="CC43" s="27"/>
+    </row>
+    <row r="44" spans="2:81" ht="12" customHeight="1">
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -5227,7 +5875,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -5239,8 +5887,46 @@
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
       <c r="AK44" s="6"/>
-    </row>
-    <row r="45" spans="2:40" ht="12" customHeight="1">
+      <c r="AV44" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW44" s="22"/>
+      <c r="AX44" s="22"/>
+      <c r="AY44" s="22"/>
+      <c r="AZ44" s="22"/>
+      <c r="BA44" s="22"/>
+      <c r="BB44" s="22"/>
+      <c r="BC44" s="22"/>
+      <c r="BD44" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE44" s="22"/>
+      <c r="BF44" s="22"/>
+      <c r="BG44" s="22"/>
+      <c r="BH44" s="22"/>
+      <c r="BI44" s="22"/>
+      <c r="BJ44" s="22"/>
+      <c r="BK44" s="22"/>
+      <c r="BL44" s="22"/>
+      <c r="BM44" s="22"/>
+      <c r="BN44" s="22"/>
+      <c r="BO44" s="22"/>
+      <c r="BP44" s="22"/>
+      <c r="BQ44" s="22"/>
+      <c r="BR44" s="22"/>
+      <c r="BS44" s="22"/>
+      <c r="BT44" s="22"/>
+      <c r="BU44" s="22"/>
+      <c r="BV44" s="22"/>
+      <c r="BW44" s="22"/>
+      <c r="BX44" s="22"/>
+      <c r="BY44" s="22"/>
+      <c r="BZ44" s="22"/>
+      <c r="CA44" s="22"/>
+      <c r="CB44" s="22"/>
+      <c r="CC44" s="27"/>
+    </row>
+    <row r="45" spans="2:81" ht="12" customHeight="1">
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -5275,8 +5961,46 @@
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
       <c r="AK45" s="6"/>
-    </row>
-    <row r="46" spans="2:40" ht="12" customHeight="1">
+      <c r="AV45" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW45" s="22"/>
+      <c r="AX45" s="22"/>
+      <c r="AY45" s="22"/>
+      <c r="AZ45" s="22"/>
+      <c r="BA45" s="22"/>
+      <c r="BB45" s="22"/>
+      <c r="BC45" s="22"/>
+      <c r="BD45" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE45" s="22"/>
+      <c r="BF45" s="22"/>
+      <c r="BG45" s="22"/>
+      <c r="BH45" s="22"/>
+      <c r="BI45" s="22"/>
+      <c r="BJ45" s="22"/>
+      <c r="BK45" s="22"/>
+      <c r="BL45" s="22"/>
+      <c r="BM45" s="22"/>
+      <c r="BN45" s="22"/>
+      <c r="BO45" s="22"/>
+      <c r="BP45" s="22"/>
+      <c r="BQ45" s="22"/>
+      <c r="BR45" s="22"/>
+      <c r="BS45" s="22"/>
+      <c r="BT45" s="22"/>
+      <c r="BU45" s="22"/>
+      <c r="BV45" s="22"/>
+      <c r="BW45" s="22"/>
+      <c r="BX45" s="22"/>
+      <c r="BY45" s="22"/>
+      <c r="BZ45" s="22"/>
+      <c r="CA45" s="22"/>
+      <c r="CB45" s="22"/>
+      <c r="CC45" s="27"/>
+    </row>
+    <row r="46" spans="2:81" ht="12" customHeight="1">
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -5311,8 +6035,42 @@
       <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
       <c r="AK46" s="9"/>
-    </row>
-    <row r="47" spans="2:40" ht="12" customHeight="1">
+      <c r="AV46" s="28"/>
+      <c r="AW46" s="29"/>
+      <c r="AX46" s="29"/>
+      <c r="AY46" s="29"/>
+      <c r="AZ46" s="29"/>
+      <c r="BA46" s="29"/>
+      <c r="BB46" s="29"/>
+      <c r="BC46" s="29"/>
+      <c r="BD46" s="29"/>
+      <c r="BE46" s="29"/>
+      <c r="BF46" s="29"/>
+      <c r="BG46" s="29"/>
+      <c r="BH46" s="29"/>
+      <c r="BI46" s="29"/>
+      <c r="BJ46" s="29"/>
+      <c r="BK46" s="29"/>
+      <c r="BL46" s="29"/>
+      <c r="BM46" s="29"/>
+      <c r="BN46" s="22"/>
+      <c r="BO46" s="29"/>
+      <c r="BP46" s="29"/>
+      <c r="BQ46" s="29"/>
+      <c r="BR46" s="29"/>
+      <c r="BS46" s="29"/>
+      <c r="BT46" s="29"/>
+      <c r="BU46" s="29"/>
+      <c r="BV46" s="29"/>
+      <c r="BW46" s="29"/>
+      <c r="BX46" s="29"/>
+      <c r="BY46" s="29"/>
+      <c r="BZ46" s="29"/>
+      <c r="CA46" s="29"/>
+      <c r="CB46" s="29"/>
+      <c r="CC46" s="30"/>
+    </row>
+    <row r="47" spans="2:81" ht="12" customHeight="1">
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -5335,9 +6093,7 @@
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
-      <c r="Z47" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="Z47" s="1"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
@@ -5345,14 +6101,48 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="3"/>
-    </row>
-    <row r="48" spans="2:40" ht="12" customHeight="1">
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="2"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
+      <c r="BJ47" s="2"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47" s="2"/>
+      <c r="BM47" s="2"/>
+      <c r="BN47" s="2"/>
+      <c r="BO47" s="5"/>
+      <c r="BP47" s="5"/>
+      <c r="BQ47" s="3"/>
+      <c r="BR47" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS47" s="38"/>
+      <c r="BT47" s="38"/>
+      <c r="BU47" s="38"/>
+      <c r="BV47" s="38"/>
+      <c r="BW47" s="38"/>
+      <c r="BX47" s="38"/>
+      <c r="BY47" s="38"/>
+      <c r="BZ47" s="38"/>
+      <c r="CA47" s="38"/>
+      <c r="CB47" s="38"/>
+      <c r="CC47" s="84"/>
+    </row>
+    <row r="48" spans="2:81" ht="12" customHeight="1">
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -5376,9 +6166,7 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="4"/>
-      <c r="AA48" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
@@ -5389,8 +6177,44 @@
       <c r="AI48" s="5"/>
       <c r="AJ48" s="5"/>
       <c r="AK48" s="6"/>
-    </row>
-    <row r="49" spans="4:37" ht="12" customHeight="1">
+      <c r="AV48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
+      <c r="BK48" s="5"/>
+      <c r="BL48" s="5"/>
+      <c r="BM48" s="5"/>
+      <c r="BN48" s="5"/>
+      <c r="BO48" s="5"/>
+      <c r="BP48" s="5"/>
+      <c r="BQ48" s="6"/>
+      <c r="BR48" s="85"/>
+      <c r="BS48" s="39"/>
+      <c r="BT48" s="39"/>
+      <c r="BU48" s="39"/>
+      <c r="BV48" s="39"/>
+      <c r="BW48" s="39"/>
+      <c r="BX48" s="39"/>
+      <c r="BY48" s="39"/>
+      <c r="BZ48" s="39"/>
+      <c r="CA48" s="39"/>
+      <c r="CB48" s="39"/>
+      <c r="CC48" s="86"/>
+    </row>
+    <row r="49" spans="4:81" ht="12" customHeight="1">
       <c r="D49" s="4"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -5407,7 +6231,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -5416,9 +6240,7 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="4"/>
-      <c r="AA49" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
@@ -5429,14 +6251,54 @@
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
       <c r="AK49" s="6"/>
-    </row>
-    <row r="50" spans="4:37" ht="12" customHeight="1">
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
+      <c r="BK49" s="5"/>
+      <c r="BL49" s="5"/>
+      <c r="BM49" s="5"/>
+      <c r="BN49" s="5"/>
+      <c r="BO49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP49" s="5"/>
+      <c r="BQ49" s="6"/>
+      <c r="BR49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS49" s="5"/>
+      <c r="BT49" s="5"/>
+      <c r="BU49" s="5"/>
+      <c r="BV49" s="5"/>
+      <c r="BW49" s="5"/>
+      <c r="BX49" s="5"/>
+      <c r="BY49" s="5"/>
+      <c r="BZ49" s="5"/>
+      <c r="CA49" s="5"/>
+      <c r="CB49" s="5"/>
+      <c r="CC49" s="6"/>
+    </row>
+    <row r="50" spans="4:81" ht="12" customHeight="1">
       <c r="D50" s="4"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
       <c r="H50" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -5448,7 +6310,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
@@ -5469,8 +6331,44 @@
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
       <c r="AK50" s="6"/>
-    </row>
-    <row r="51" spans="4:37" ht="12" customHeight="1">
+      <c r="AV50" s="4"/>
+      <c r="AW50" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX50" s="5"/>
+      <c r="AY50" s="5"/>
+      <c r="AZ50" s="5"/>
+      <c r="BA50" s="5"/>
+      <c r="BB50" s="5"/>
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="5"/>
+      <c r="BE50" s="5"/>
+      <c r="BF50" s="5"/>
+      <c r="BG50" s="5"/>
+      <c r="BH50" s="5"/>
+      <c r="BI50" s="5"/>
+      <c r="BJ50" s="5"/>
+      <c r="BK50" s="5"/>
+      <c r="BL50" s="5"/>
+      <c r="BM50" s="5"/>
+      <c r="BN50" s="5"/>
+      <c r="BO50" s="5"/>
+      <c r="BP50" s="5"/>
+      <c r="BQ50" s="6"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="87"/>
+      <c r="BT50" s="2"/>
+      <c r="BU50" s="2"/>
+      <c r="BV50" s="2"/>
+      <c r="BW50" s="2"/>
+      <c r="BX50" s="2"/>
+      <c r="BY50" s="2"/>
+      <c r="BZ50" s="2"/>
+      <c r="CA50" s="2"/>
+      <c r="CB50" s="2"/>
+      <c r="CC50" s="3"/>
+    </row>
+    <row r="51" spans="4:81" ht="12" customHeight="1">
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -5505,8 +6403,44 @@
       <c r="AI51" s="8"/>
       <c r="AJ51" s="8"/>
       <c r="AK51" s="9"/>
-    </row>
-    <row r="52" spans="4:37" ht="12" customHeight="1">
+      <c r="AV51" s="4"/>
+      <c r="AW51" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX51" s="5"/>
+      <c r="AY51" s="5"/>
+      <c r="AZ51" s="5"/>
+      <c r="BA51" s="5"/>
+      <c r="BB51" s="5"/>
+      <c r="BC51" s="5"/>
+      <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
+      <c r="BF51" s="5"/>
+      <c r="BG51" s="5"/>
+      <c r="BH51" s="5"/>
+      <c r="BI51" s="5"/>
+      <c r="BJ51" s="5"/>
+      <c r="BK51" s="5"/>
+      <c r="BL51" s="5"/>
+      <c r="BM51" s="5"/>
+      <c r="BN51" s="5"/>
+      <c r="BO51" s="5"/>
+      <c r="BP51" s="5"/>
+      <c r="BQ51" s="6"/>
+      <c r="BR51" s="7"/>
+      <c r="BS51" s="8"/>
+      <c r="BT51" s="8"/>
+      <c r="BU51" s="8"/>
+      <c r="BV51" s="8"/>
+      <c r="BW51" s="8"/>
+      <c r="BX51" s="8"/>
+      <c r="BY51" s="8"/>
+      <c r="BZ51" s="8"/>
+      <c r="CA51" s="8"/>
+      <c r="CB51" s="8"/>
+      <c r="CC51" s="9"/>
+    </row>
+    <row r="52" spans="4:81" ht="12" customHeight="1">
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -5540,13 +6474,49 @@
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
       <c r="AK52" s="6"/>
-    </row>
-    <row r="53" spans="4:37" ht="12" customHeight="1">
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="5"/>
+      <c r="BI52" s="5"/>
+      <c r="BJ52" s="5"/>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="5"/>
+      <c r="BM52" s="5"/>
+      <c r="BN52" s="5"/>
+      <c r="BO52" s="5"/>
+      <c r="BP52" s="5"/>
+      <c r="BQ52" s="6"/>
+      <c r="BR52" s="5"/>
+      <c r="BS52" s="5"/>
+      <c r="BT52" s="5"/>
+      <c r="BU52" s="5"/>
+      <c r="BV52" s="5"/>
+      <c r="BW52" s="5"/>
+      <c r="BX52" s="5"/>
+      <c r="BY52" s="5"/>
+      <c r="BZ52" s="5"/>
+      <c r="CA52" s="5"/>
+      <c r="CB52" s="5"/>
+      <c r="CC52" s="6"/>
+    </row>
+    <row r="53" spans="4:81" ht="12" customHeight="1">
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -5571,7 +6541,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
@@ -5580,13 +6550,49 @@
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
       <c r="AK53" s="6"/>
-    </row>
-    <row r="54" spans="4:37" ht="12" customHeight="1">
+      <c r="AV53" s="4"/>
+      <c r="AW53" s="5"/>
+      <c r="AX53" s="5"/>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5"/>
+      <c r="BA53" s="5"/>
+      <c r="BB53" s="5"/>
+      <c r="BC53" s="5"/>
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
+      <c r="BF53" s="5"/>
+      <c r="BG53" s="5"/>
+      <c r="BH53" s="5"/>
+      <c r="BI53" s="5"/>
+      <c r="BJ53" s="5"/>
+      <c r="BK53" s="5"/>
+      <c r="BL53" s="5"/>
+      <c r="BM53" s="5"/>
+      <c r="BN53" s="5"/>
+      <c r="BO53" s="5"/>
+      <c r="BP53" s="5"/>
+      <c r="BQ53" s="6"/>
+      <c r="BR53" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS53" s="5"/>
+      <c r="BT53" s="5"/>
+      <c r="BU53" s="5"/>
+      <c r="BV53" s="5"/>
+      <c r="BW53" s="5"/>
+      <c r="BX53" s="5"/>
+      <c r="BY53" s="5"/>
+      <c r="BZ53" s="5"/>
+      <c r="CA53" s="5"/>
+      <c r="CB53" s="5"/>
+      <c r="CC53" s="6"/>
+    </row>
+    <row r="54" spans="4:81" ht="12" customHeight="1">
       <c r="D54" s="4"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -5611,7 +6617,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
@@ -5620,13 +6626,51 @@
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
       <c r="AH54" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
       <c r="AK54" s="6"/>
-    </row>
-    <row r="55" spans="4:37" ht="12" customHeight="1">
+      <c r="AV54" s="4"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="82">
+        <v>42895</v>
+      </c>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="5"/>
+      <c r="BG54" s="5"/>
+      <c r="BH54" s="5"/>
+      <c r="BI54" s="5"/>
+      <c r="BJ54" s="5"/>
+      <c r="BK54" s="5"/>
+      <c r="BL54" s="5"/>
+      <c r="BM54" s="5"/>
+      <c r="BN54" s="5"/>
+      <c r="BO54" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP54" s="5"/>
+      <c r="BQ54" s="6"/>
+      <c r="BR54" s="1"/>
+      <c r="BS54" s="87"/>
+      <c r="BT54" s="2"/>
+      <c r="BU54" s="2"/>
+      <c r="BV54" s="2"/>
+      <c r="BW54" s="2"/>
+      <c r="BX54" s="2"/>
+      <c r="BY54" s="2"/>
+      <c r="BZ54" s="2"/>
+      <c r="CA54" s="2"/>
+      <c r="CB54" s="2"/>
+      <c r="CC54" s="3"/>
+    </row>
+    <row r="55" spans="4:81" ht="12" customHeight="1">
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -5650,29 +6694,63 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="4"/>
-      <c r="AA55" s="31" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA55" s="31"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
-      <c r="AH55" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="AH55" s="5"/>
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5"/>
       <c r="AK55" s="6"/>
-    </row>
-    <row r="56" spans="4:37" ht="12" customHeight="1">
+      <c r="AV55" s="4"/>
+      <c r="AW55" s="5"/>
+      <c r="AX55" s="5"/>
+      <c r="AY55" s="5"/>
+      <c r="AZ55" s="5"/>
+      <c r="BA55" s="5"/>
+      <c r="BB55" s="5"/>
+      <c r="BC55" s="82">
+        <v>42896</v>
+      </c>
+      <c r="BD55" s="5"/>
+      <c r="BE55" s="5"/>
+      <c r="BF55" s="5"/>
+      <c r="BG55" s="5"/>
+      <c r="BH55" s="5"/>
+      <c r="BI55" s="5"/>
+      <c r="BJ55" s="5"/>
+      <c r="BK55" s="5"/>
+      <c r="BL55" s="5"/>
+      <c r="BM55" s="5"/>
+      <c r="BN55" s="5"/>
+      <c r="BO55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP55" s="5"/>
+      <c r="BQ55" s="6"/>
+      <c r="BR55" s="7"/>
+      <c r="BS55" s="88"/>
+      <c r="BT55" s="8"/>
+      <c r="BU55" s="8"/>
+      <c r="BV55" s="8"/>
+      <c r="BW55" s="8"/>
+      <c r="BX55" s="8"/>
+      <c r="BY55" s="8"/>
+      <c r="BZ55" s="8"/>
+      <c r="CA55" s="8"/>
+      <c r="CB55" s="8"/>
+      <c r="CC55" s="9"/>
+    </row>
+    <row r="56" spans="4:81" ht="12" customHeight="1">
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="32"/>
       <c r="H56" s="33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I56" s="33"/>
       <c r="J56" s="33"/>
@@ -5703,8 +6781,42 @@
       <c r="AI56" s="5"/>
       <c r="AJ56" s="5"/>
       <c r="AK56" s="6"/>
-    </row>
-    <row r="57" spans="4:37" ht="12" customHeight="1">
+      <c r="AV56" s="4"/>
+      <c r="AW56" s="5"/>
+      <c r="AX56" s="5"/>
+      <c r="AY56" s="5"/>
+      <c r="AZ56" s="5"/>
+      <c r="BA56" s="5"/>
+      <c r="BB56" s="5"/>
+      <c r="BC56" s="5"/>
+      <c r="BD56" s="5"/>
+      <c r="BE56" s="5"/>
+      <c r="BF56" s="5"/>
+      <c r="BG56" s="5"/>
+      <c r="BH56" s="5"/>
+      <c r="BI56" s="5"/>
+      <c r="BJ56" s="5"/>
+      <c r="BK56" s="5"/>
+      <c r="BL56" s="5"/>
+      <c r="BM56" s="5"/>
+      <c r="BN56" s="5"/>
+      <c r="BO56" s="5"/>
+      <c r="BP56" s="5"/>
+      <c r="BQ56" s="6"/>
+      <c r="BR56" s="5"/>
+      <c r="BS56" s="5"/>
+      <c r="BT56" s="5"/>
+      <c r="BU56" s="5"/>
+      <c r="BV56" s="5"/>
+      <c r="BW56" s="5"/>
+      <c r="BX56" s="5"/>
+      <c r="BY56" s="5"/>
+      <c r="BZ56" s="5"/>
+      <c r="CA56" s="5"/>
+      <c r="CB56" s="5"/>
+      <c r="CC56" s="6"/>
+    </row>
+    <row r="57" spans="4:81" ht="12" customHeight="1">
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -5739,8 +6851,48 @@
       <c r="AI57" s="5"/>
       <c r="AJ57" s="5"/>
       <c r="AK57" s="6"/>
-    </row>
-    <row r="58" spans="4:37" ht="12" customHeight="1">
+      <c r="AV57" s="4"/>
+      <c r="AW57" s="5"/>
+      <c r="AX57" s="5"/>
+      <c r="AY57" s="5"/>
+      <c r="AZ57" s="5"/>
+      <c r="BA57" s="5"/>
+      <c r="BB57" s="5"/>
+      <c r="BC57" s="5"/>
+      <c r="BD57" s="5"/>
+      <c r="BE57" s="5"/>
+      <c r="BF57" s="5"/>
+      <c r="BG57" s="5"/>
+      <c r="BH57" s="5"/>
+      <c r="BI57" s="5"/>
+      <c r="BJ57" s="5"/>
+      <c r="BK57" s="5"/>
+      <c r="BL57" s="5"/>
+      <c r="BM57" s="5"/>
+      <c r="BN57" s="5"/>
+      <c r="BO57" s="5"/>
+      <c r="BP57" s="5"/>
+      <c r="BQ57" s="6"/>
+      <c r="BR57" s="5"/>
+      <c r="BS57" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="BT57" s="41"/>
+      <c r="BU57" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV57" s="41"/>
+      <c r="BW57" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX57" s="41"/>
+      <c r="BY57" s="5"/>
+      <c r="BZ57" s="5"/>
+      <c r="CA57" s="5"/>
+      <c r="CB57" s="5"/>
+      <c r="CC57" s="6"/>
+    </row>
+    <row r="58" spans="4:81" ht="12" customHeight="1">
       <c r="D58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="5"/>
@@ -5770,8 +6922,44 @@
       <c r="AI58" s="8"/>
       <c r="AJ58" s="8"/>
       <c r="AK58" s="9"/>
-    </row>
-    <row r="59" spans="4:37" ht="12" customHeight="1">
+      <c r="AV58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW58" s="5"/>
+      <c r="AX58" s="5"/>
+      <c r="AY58" s="5"/>
+      <c r="AZ58" s="5"/>
+      <c r="BA58" s="5"/>
+      <c r="BB58" s="5"/>
+      <c r="BC58" s="5"/>
+      <c r="BD58" s="5"/>
+      <c r="BE58" s="5"/>
+      <c r="BF58" s="5"/>
+      <c r="BG58" s="5"/>
+      <c r="BH58" s="5"/>
+      <c r="BI58" s="5"/>
+      <c r="BJ58" s="5"/>
+      <c r="BK58" s="5"/>
+      <c r="BL58" s="5"/>
+      <c r="BM58" s="5"/>
+      <c r="BN58" s="5"/>
+      <c r="BO58" s="5"/>
+      <c r="BP58" s="5"/>
+      <c r="BQ58" s="6"/>
+      <c r="BR58" s="5"/>
+      <c r="BS58" s="42"/>
+      <c r="BT58" s="43"/>
+      <c r="BU58" s="42"/>
+      <c r="BV58" s="43"/>
+      <c r="BW58" s="42"/>
+      <c r="BX58" s="43"/>
+      <c r="BY58" s="5"/>
+      <c r="BZ58" s="5"/>
+      <c r="CA58" s="5"/>
+      <c r="CB58" s="5"/>
+      <c r="CC58" s="6"/>
+    </row>
+    <row r="59" spans="4:81" ht="12" customHeight="1">
       <c r="D59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="5"/>
@@ -5790,8 +6978,44 @@
       <c r="U59" s="5"/>
       <c r="V59" s="6"/>
       <c r="AK59" s="3"/>
-    </row>
-    <row r="60" spans="4:37" ht="12" customHeight="1">
+      <c r="AV59" s="4"/>
+      <c r="AW59" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX59" s="5"/>
+      <c r="AY59" s="5"/>
+      <c r="AZ59" s="5"/>
+      <c r="BA59" s="5"/>
+      <c r="BB59" s="5"/>
+      <c r="BC59" s="5"/>
+      <c r="BD59" s="5"/>
+      <c r="BE59" s="5"/>
+      <c r="BF59" s="5"/>
+      <c r="BG59" s="5"/>
+      <c r="BH59" s="5"/>
+      <c r="BI59" s="5"/>
+      <c r="BJ59" s="5"/>
+      <c r="BK59" s="5"/>
+      <c r="BL59" s="5"/>
+      <c r="BM59" s="5"/>
+      <c r="BN59" s="5"/>
+      <c r="BO59" s="5"/>
+      <c r="BP59" s="5"/>
+      <c r="BQ59" s="6"/>
+      <c r="BR59" s="5"/>
+      <c r="BS59" s="5"/>
+      <c r="BT59" s="5"/>
+      <c r="BU59" s="5"/>
+      <c r="BV59" s="5"/>
+      <c r="BW59" s="5"/>
+      <c r="BX59" s="5"/>
+      <c r="BY59" s="5"/>
+      <c r="BZ59" s="5"/>
+      <c r="CA59" s="5"/>
+      <c r="CB59" s="5"/>
+      <c r="CC59" s="6"/>
+    </row>
+    <row r="60" spans="4:81" ht="12" customHeight="1">
       <c r="D60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="5"/>
@@ -5810,8 +7034,48 @@
       <c r="U60" s="5"/>
       <c r="V60" s="6"/>
       <c r="AK60" s="6"/>
-    </row>
-    <row r="61" spans="4:37" ht="12" customHeight="1">
+      <c r="AV60" s="4"/>
+      <c r="AW60" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX60" s="5"/>
+      <c r="AY60" s="5"/>
+      <c r="AZ60" s="5"/>
+      <c r="BA60" s="5"/>
+      <c r="BB60" s="5"/>
+      <c r="BC60" s="5"/>
+      <c r="BD60" s="5"/>
+      <c r="BE60" s="5"/>
+      <c r="BF60" s="5"/>
+      <c r="BG60" s="5"/>
+      <c r="BH60" s="5"/>
+      <c r="BI60" s="5"/>
+      <c r="BJ60" s="5"/>
+      <c r="BK60" s="5"/>
+      <c r="BL60" s="5"/>
+      <c r="BM60" s="5"/>
+      <c r="BN60" s="5"/>
+      <c r="BO60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP60" s="5"/>
+      <c r="BQ60" s="6"/>
+      <c r="BR60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS60" s="5"/>
+      <c r="BT60" s="5"/>
+      <c r="BU60" s="5"/>
+      <c r="BV60" s="5"/>
+      <c r="BW60" s="5"/>
+      <c r="BX60" s="5"/>
+      <c r="BY60" s="5"/>
+      <c r="BZ60" s="5"/>
+      <c r="CA60" s="5"/>
+      <c r="CB60" s="5"/>
+      <c r="CC60" s="6"/>
+    </row>
+    <row r="61" spans="4:81" ht="12" customHeight="1">
       <c r="D61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="5"/>
@@ -5820,7 +7084,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
@@ -5832,8 +7096,44 @@
       <c r="U61" s="5"/>
       <c r="V61" s="6"/>
       <c r="AK61" s="6"/>
-    </row>
-    <row r="62" spans="4:37" ht="12" customHeight="1">
+      <c r="AV61" s="4"/>
+      <c r="AW61" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX61" s="5"/>
+      <c r="AY61" s="5"/>
+      <c r="AZ61" s="5"/>
+      <c r="BA61" s="5"/>
+      <c r="BB61" s="5"/>
+      <c r="BC61" s="5"/>
+      <c r="BD61" s="5"/>
+      <c r="BE61" s="5"/>
+      <c r="BF61" s="5"/>
+      <c r="BG61" s="5"/>
+      <c r="BH61" s="5"/>
+      <c r="BI61" s="5"/>
+      <c r="BJ61" s="5"/>
+      <c r="BK61" s="5"/>
+      <c r="BL61" s="5"/>
+      <c r="BM61" s="5"/>
+      <c r="BN61" s="5"/>
+      <c r="BO61" s="5"/>
+      <c r="BP61" s="5"/>
+      <c r="BQ61" s="6"/>
+      <c r="BR61" s="1"/>
+      <c r="BS61" s="2"/>
+      <c r="BT61" s="2"/>
+      <c r="BU61" s="2"/>
+      <c r="BV61" s="2"/>
+      <c r="BW61" s="2"/>
+      <c r="BX61" s="2"/>
+      <c r="BY61" s="2"/>
+      <c r="BZ61" s="2"/>
+      <c r="CA61" s="2"/>
+      <c r="CB61" s="2"/>
+      <c r="CC61" s="3"/>
+    </row>
+    <row r="62" spans="4:81" ht="12" customHeight="1">
       <c r="D62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="5"/>
@@ -5852,8 +7152,44 @@
       <c r="U62" s="5"/>
       <c r="V62" s="6"/>
       <c r="AK62" s="6"/>
-    </row>
-    <row r="63" spans="4:37" ht="12" customHeight="1">
+      <c r="AV62" s="4"/>
+      <c r="AW62" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX62" s="5"/>
+      <c r="AY62" s="5"/>
+      <c r="AZ62" s="5"/>
+      <c r="BA62" s="5"/>
+      <c r="BB62" s="5"/>
+      <c r="BC62" s="5"/>
+      <c r="BD62" s="5"/>
+      <c r="BE62" s="5"/>
+      <c r="BF62" s="5"/>
+      <c r="BG62" s="5"/>
+      <c r="BH62" s="5"/>
+      <c r="BI62" s="5"/>
+      <c r="BJ62" s="5"/>
+      <c r="BK62" s="5"/>
+      <c r="BL62" s="5"/>
+      <c r="BM62" s="5"/>
+      <c r="BN62" s="5"/>
+      <c r="BO62" s="5"/>
+      <c r="BP62" s="5"/>
+      <c r="BQ62" s="6"/>
+      <c r="BR62" s="7"/>
+      <c r="BS62" s="8"/>
+      <c r="BT62" s="8"/>
+      <c r="BU62" s="8"/>
+      <c r="BV62" s="8"/>
+      <c r="BW62" s="8"/>
+      <c r="BX62" s="8"/>
+      <c r="BY62" s="8"/>
+      <c r="BZ62" s="8"/>
+      <c r="CA62" s="8"/>
+      <c r="CB62" s="8"/>
+      <c r="CC62" s="9"/>
+    </row>
+    <row r="63" spans="4:81" ht="12" customHeight="1">
       <c r="D63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="5"/>
@@ -5872,8 +7208,42 @@
       <c r="U63" s="5"/>
       <c r="V63" s="6"/>
       <c r="AK63" s="6"/>
-    </row>
-    <row r="64" spans="4:37" ht="12" customHeight="1">
+      <c r="AV63" s="4"/>
+      <c r="AW63" s="5"/>
+      <c r="AX63" s="5"/>
+      <c r="AY63" s="5"/>
+      <c r="AZ63" s="5"/>
+      <c r="BA63" s="5"/>
+      <c r="BB63" s="5"/>
+      <c r="BC63" s="5"/>
+      <c r="BD63" s="5"/>
+      <c r="BE63" s="5"/>
+      <c r="BF63" s="5"/>
+      <c r="BG63" s="5"/>
+      <c r="BH63" s="5"/>
+      <c r="BI63" s="5"/>
+      <c r="BJ63" s="5"/>
+      <c r="BK63" s="5"/>
+      <c r="BL63" s="5"/>
+      <c r="BM63" s="5"/>
+      <c r="BN63" s="5"/>
+      <c r="BO63" s="5"/>
+      <c r="BP63" s="5"/>
+      <c r="BQ63" s="6"/>
+      <c r="BR63" s="5"/>
+      <c r="BS63" s="5"/>
+      <c r="BT63" s="5"/>
+      <c r="BU63" s="5"/>
+      <c r="BV63" s="5"/>
+      <c r="BW63" s="5"/>
+      <c r="BX63" s="5"/>
+      <c r="BY63" s="5"/>
+      <c r="BZ63" s="5"/>
+      <c r="CA63" s="5"/>
+      <c r="CB63" s="5"/>
+      <c r="CC63" s="6"/>
+    </row>
+    <row r="64" spans="4:81" ht="12" customHeight="1">
       <c r="D64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="5"/>
@@ -5892,8 +7262,48 @@
       <c r="U64" s="5"/>
       <c r="V64" s="6"/>
       <c r="AK64" s="6"/>
-    </row>
-    <row r="65" spans="4:37" ht="12" customHeight="1">
+      <c r="AV64" s="4"/>
+      <c r="AW64" s="5"/>
+      <c r="AX64" s="5"/>
+      <c r="AY64" s="5"/>
+      <c r="AZ64" s="5"/>
+      <c r="BA64" s="5"/>
+      <c r="BB64" s="5"/>
+      <c r="BC64" s="82">
+        <v>42895</v>
+      </c>
+      <c r="BD64" s="5"/>
+      <c r="BE64" s="5"/>
+      <c r="BF64" s="5"/>
+      <c r="BG64" s="5"/>
+      <c r="BH64" s="5"/>
+      <c r="BI64" s="5"/>
+      <c r="BJ64" s="5"/>
+      <c r="BK64" s="5"/>
+      <c r="BL64" s="5"/>
+      <c r="BM64" s="5"/>
+      <c r="BN64" s="5"/>
+      <c r="BO64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP64" s="5"/>
+      <c r="BQ64" s="6"/>
+      <c r="BR64" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS64" s="5"/>
+      <c r="BT64" s="5"/>
+      <c r="BU64" s="5"/>
+      <c r="BV64" s="5"/>
+      <c r="BW64" s="5"/>
+      <c r="BX64" s="5"/>
+      <c r="BY64" s="5"/>
+      <c r="BZ64" s="5"/>
+      <c r="CA64" s="5"/>
+      <c r="CB64" s="5"/>
+      <c r="CC64" s="6"/>
+    </row>
+    <row r="65" spans="4:81" ht="12" customHeight="1">
       <c r="D65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="5"/>
@@ -5912,8 +7322,48 @@
       <c r="U65" s="5"/>
       <c r="V65" s="6"/>
       <c r="AK65" s="6"/>
-    </row>
-    <row r="66" spans="4:37" ht="12" customHeight="1">
+      <c r="AV65" s="4"/>
+      <c r="AW65" s="5"/>
+      <c r="AX65" s="5"/>
+      <c r="AY65" s="5"/>
+      <c r="AZ65" s="5"/>
+      <c r="BA65" s="5"/>
+      <c r="BB65" s="5"/>
+      <c r="BC65" s="82">
+        <v>42896</v>
+      </c>
+      <c r="BD65" s="5"/>
+      <c r="BE65" s="5"/>
+      <c r="BF65" s="5"/>
+      <c r="BG65" s="5"/>
+      <c r="BH65" s="5"/>
+      <c r="BI65" s="5"/>
+      <c r="BJ65" s="5"/>
+      <c r="BK65" s="5"/>
+      <c r="BL65" s="5"/>
+      <c r="BM65" s="5"/>
+      <c r="BN65" s="5"/>
+      <c r="BO65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP65" s="5"/>
+      <c r="BQ65" s="6"/>
+      <c r="BR65" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS65" s="46"/>
+      <c r="BT65" s="46"/>
+      <c r="BU65" s="46"/>
+      <c r="BV65" s="46"/>
+      <c r="BW65" s="46"/>
+      <c r="BX65" s="41"/>
+      <c r="BY65" s="5"/>
+      <c r="BZ65" s="5"/>
+      <c r="CA65" s="5"/>
+      <c r="CB65" s="5"/>
+      <c r="CC65" s="6"/>
+    </row>
+    <row r="66" spans="4:81" ht="12" customHeight="1">
       <c r="D66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="5"/>
@@ -5932,8 +7382,42 @@
       <c r="U66" s="5"/>
       <c r="V66" s="6"/>
       <c r="AK66" s="6"/>
-    </row>
-    <row r="67" spans="4:37" ht="12" customHeight="1">
+      <c r="AV66" s="4"/>
+      <c r="AW66" s="5"/>
+      <c r="AX66" s="5"/>
+      <c r="AY66" s="5"/>
+      <c r="AZ66" s="5"/>
+      <c r="BA66" s="5"/>
+      <c r="BB66" s="5"/>
+      <c r="BC66" s="5"/>
+      <c r="BD66" s="5"/>
+      <c r="BE66" s="5"/>
+      <c r="BF66" s="5"/>
+      <c r="BG66" s="5"/>
+      <c r="BH66" s="5"/>
+      <c r="BI66" s="5"/>
+      <c r="BJ66" s="5"/>
+      <c r="BK66" s="5"/>
+      <c r="BL66" s="5"/>
+      <c r="BM66" s="5"/>
+      <c r="BN66" s="5"/>
+      <c r="BO66" s="5"/>
+      <c r="BP66" s="5"/>
+      <c r="BQ66" s="6"/>
+      <c r="BR66" s="42"/>
+      <c r="BS66" s="47"/>
+      <c r="BT66" s="47"/>
+      <c r="BU66" s="47"/>
+      <c r="BV66" s="47"/>
+      <c r="BW66" s="47"/>
+      <c r="BX66" s="43"/>
+      <c r="BY66" s="5"/>
+      <c r="BZ66" s="5"/>
+      <c r="CA66" s="5"/>
+      <c r="CB66" s="5"/>
+      <c r="CC66" s="6"/>
+    </row>
+    <row r="67" spans="4:81" ht="12" customHeight="1">
       <c r="D67" s="4"/>
       <c r="G67" s="7"/>
       <c r="H67" s="8"/>
@@ -5952,8 +7436,42 @@
       <c r="U67" s="8"/>
       <c r="V67" s="9"/>
       <c r="AK67" s="6"/>
-    </row>
-    <row r="68" spans="4:37" ht="12" customHeight="1">
+      <c r="AV67" s="7"/>
+      <c r="AW67" s="8"/>
+      <c r="AX67" s="8"/>
+      <c r="AY67" s="8"/>
+      <c r="AZ67" s="8"/>
+      <c r="BA67" s="8"/>
+      <c r="BB67" s="8"/>
+      <c r="BC67" s="8"/>
+      <c r="BD67" s="8"/>
+      <c r="BE67" s="8"/>
+      <c r="BF67" s="8"/>
+      <c r="BG67" s="8"/>
+      <c r="BH67" s="8"/>
+      <c r="BI67" s="8"/>
+      <c r="BJ67" s="8"/>
+      <c r="BK67" s="8"/>
+      <c r="BL67" s="8"/>
+      <c r="BM67" s="8"/>
+      <c r="BN67" s="8"/>
+      <c r="BO67" s="8"/>
+      <c r="BP67" s="8"/>
+      <c r="BQ67" s="9"/>
+      <c r="BR67" s="89"/>
+      <c r="BS67" s="93"/>
+      <c r="BT67" s="93"/>
+      <c r="BU67" s="93"/>
+      <c r="BV67" s="93"/>
+      <c r="BW67" s="93"/>
+      <c r="BX67" s="93"/>
+      <c r="BY67" s="93"/>
+      <c r="BZ67" s="93"/>
+      <c r="CA67" s="93"/>
+      <c r="CB67" s="93"/>
+      <c r="CC67" s="90"/>
+    </row>
+    <row r="68" spans="4:81" ht="12" customHeight="1">
       <c r="D68" s="4"/>
       <c r="G68" s="1"/>
       <c r="H68" s="2"/>
@@ -5968,18 +7486,52 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="3"/>
       <c r="AK68" s="6"/>
-    </row>
-    <row r="69" spans="4:37" ht="12" customHeight="1">
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="2"/>
+      <c r="AX68" s="2"/>
+      <c r="AY68" s="2"/>
+      <c r="AZ68" s="2"/>
+      <c r="BA68" s="2"/>
+      <c r="BB68" s="2"/>
+      <c r="BC68" s="2"/>
+      <c r="BD68" s="2"/>
+      <c r="BE68" s="2"/>
+      <c r="BF68" s="2"/>
+      <c r="BG68" s="2"/>
+      <c r="BH68" s="2"/>
+      <c r="BI68" s="2"/>
+      <c r="BJ68" s="2"/>
+      <c r="BK68" s="2"/>
+      <c r="BL68" s="2"/>
+      <c r="BM68" s="2"/>
+      <c r="BN68" s="2"/>
+      <c r="BO68" s="2"/>
+      <c r="BP68" s="2"/>
+      <c r="BQ68" s="3"/>
+      <c r="BR68" s="91"/>
+      <c r="BS68" s="94"/>
+      <c r="BT68" s="94"/>
+      <c r="BU68" s="94"/>
+      <c r="BV68" s="94"/>
+      <c r="BW68" s="94"/>
+      <c r="BX68" s="94"/>
+      <c r="BY68" s="94"/>
+      <c r="BZ68" s="94"/>
+      <c r="CA68" s="94"/>
+      <c r="CB68" s="94"/>
+      <c r="CC68" s="92"/>
+    </row>
+    <row r="69" spans="4:81" ht="12" customHeight="1">
       <c r="D69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -5991,15 +7543,53 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="6"/>
       <c r="AK69" s="6"/>
-    </row>
-    <row r="70" spans="4:37" ht="12" customHeight="1">
+      <c r="AV69" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW69" s="5"/>
+      <c r="AX69" s="5"/>
+      <c r="AY69" s="5"/>
+      <c r="AZ69" s="5"/>
+      <c r="BA69" s="5"/>
+      <c r="BB69" s="5"/>
+      <c r="BC69" s="5"/>
+      <c r="BD69" s="5"/>
+      <c r="BE69" s="5"/>
+      <c r="BF69" s="5"/>
+      <c r="BG69" s="5"/>
+      <c r="BH69" s="5"/>
+      <c r="BI69" s="5"/>
+      <c r="BJ69" s="5"/>
+      <c r="BK69" s="5"/>
+      <c r="BL69" s="5"/>
+      <c r="BM69" s="5"/>
+      <c r="BN69" s="5"/>
+      <c r="BO69" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP69" s="5"/>
+      <c r="BQ69" s="6"/>
+      <c r="BR69" s="5"/>
+      <c r="BS69" s="5"/>
+      <c r="BT69" s="5"/>
+      <c r="BU69" s="5"/>
+      <c r="BV69" s="5"/>
+      <c r="BW69" s="5"/>
+      <c r="BX69" s="5"/>
+      <c r="BY69" s="5"/>
+      <c r="BZ69" s="5"/>
+      <c r="CA69" s="5"/>
+      <c r="CB69" s="5"/>
+      <c r="CC69" s="6"/>
+    </row>
+    <row r="70" spans="4:81" ht="12" customHeight="1">
       <c r="D70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="5"/>
@@ -6018,8 +7608,46 @@
       <c r="U70" s="5"/>
       <c r="V70" s="6"/>
       <c r="AK70" s="6"/>
-    </row>
-    <row r="71" spans="4:37" ht="12" customHeight="1">
+      <c r="AV70" s="4"/>
+      <c r="AW70" s="5"/>
+      <c r="AX70" s="5"/>
+      <c r="AY70" s="5"/>
+      <c r="AZ70" s="5"/>
+      <c r="BA70" s="5"/>
+      <c r="BB70" s="5"/>
+      <c r="BC70" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD70" s="5"/>
+      <c r="BE70" s="5"/>
+      <c r="BF70" s="5"/>
+      <c r="BG70" s="5"/>
+      <c r="BH70" s="5"/>
+      <c r="BI70" s="5"/>
+      <c r="BJ70" s="5"/>
+      <c r="BK70" s="5"/>
+      <c r="BL70" s="5"/>
+      <c r="BM70" s="5"/>
+      <c r="BN70" s="5"/>
+      <c r="BO70" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP70" s="5"/>
+      <c r="BQ70" s="6"/>
+      <c r="BR70" s="5"/>
+      <c r="BS70" s="5"/>
+      <c r="BT70" s="5"/>
+      <c r="BU70" s="5"/>
+      <c r="BV70" s="5"/>
+      <c r="BW70" s="5"/>
+      <c r="BX70" s="5"/>
+      <c r="BY70" s="5"/>
+      <c r="BZ70" s="5"/>
+      <c r="CA70" s="5"/>
+      <c r="CB70" s="5"/>
+      <c r="CC70" s="6"/>
+    </row>
+    <row r="71" spans="4:81" ht="12" customHeight="1">
       <c r="D71" s="4"/>
       <c r="G71" s="7"/>
       <c r="H71" s="8"/>
@@ -6038,16 +7666,114 @@
       <c r="U71" s="8"/>
       <c r="V71" s="9"/>
       <c r="AK71" s="6"/>
-    </row>
-    <row r="72" spans="4:37" ht="12" customHeight="1">
+      <c r="AV71" s="4"/>
+      <c r="AW71" s="5"/>
+      <c r="AX71" s="5"/>
+      <c r="AY71" s="5"/>
+      <c r="AZ71" s="5"/>
+      <c r="BA71" s="5"/>
+      <c r="BB71" s="5"/>
+      <c r="BC71" s="5"/>
+      <c r="BD71" s="5"/>
+      <c r="BE71" s="5"/>
+      <c r="BF71" s="5"/>
+      <c r="BG71" s="5"/>
+      <c r="BH71" s="5"/>
+      <c r="BI71" s="5"/>
+      <c r="BJ71" s="5"/>
+      <c r="BK71" s="5"/>
+      <c r="BL71" s="5"/>
+      <c r="BM71" s="5"/>
+      <c r="BN71" s="5"/>
+      <c r="BO71" s="5"/>
+      <c r="BP71" s="5"/>
+      <c r="BQ71" s="6"/>
+      <c r="BR71" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS71" s="38"/>
+      <c r="BT71" s="38"/>
+      <c r="BU71" s="38"/>
+      <c r="BV71" s="38"/>
+      <c r="BW71" s="38"/>
+      <c r="BX71" s="38"/>
+      <c r="BY71" s="38"/>
+      <c r="BZ71" s="38"/>
+      <c r="CA71" s="38"/>
+      <c r="CB71" s="38"/>
+      <c r="CC71" s="84"/>
+    </row>
+    <row r="72" spans="4:81" ht="12" customHeight="1">
       <c r="D72" s="4"/>
       <c r="AK72" s="6"/>
-    </row>
-    <row r="73" spans="4:37" ht="12" customHeight="1">
+      <c r="AV72" s="4"/>
+      <c r="AW72" s="5"/>
+      <c r="AX72" s="5"/>
+      <c r="AY72" s="5"/>
+      <c r="AZ72" s="5"/>
+      <c r="BA72" s="5"/>
+      <c r="BB72" s="5"/>
+      <c r="BC72" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD72" s="5"/>
+      <c r="BE72" s="5"/>
+      <c r="BF72" s="5"/>
+      <c r="BG72" s="5"/>
+      <c r="BH72" s="5"/>
+      <c r="BI72" s="5"/>
+      <c r="BJ72" s="5"/>
+      <c r="BK72" s="5"/>
+      <c r="BL72" s="5"/>
+      <c r="BM72" s="5"/>
+      <c r="BN72" s="5"/>
+      <c r="BO72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP72" s="5"/>
+      <c r="BQ72" s="6"/>
+      <c r="BR72" s="95"/>
+      <c r="BS72" s="96"/>
+      <c r="BT72" s="96"/>
+      <c r="BU72" s="96"/>
+      <c r="BV72" s="96"/>
+      <c r="BW72" s="96"/>
+      <c r="BX72" s="96"/>
+      <c r="BY72" s="96"/>
+      <c r="BZ72" s="96"/>
+      <c r="CA72" s="96"/>
+      <c r="CB72" s="96"/>
+      <c r="CC72" s="97"/>
+    </row>
+    <row r="73" spans="4:81" ht="12" customHeight="1">
       <c r="D73" s="4"/>
       <c r="AK73" s="6"/>
-    </row>
-    <row r="74" spans="4:37" ht="12" customHeight="1">
+      <c r="AV73" s="4"/>
+      <c r="AW73" s="5"/>
+      <c r="AX73" s="5"/>
+      <c r="AY73" s="5"/>
+      <c r="AZ73" s="5"/>
+      <c r="BA73" s="5"/>
+      <c r="BB73" s="5"/>
+      <c r="BC73" s="5"/>
+      <c r="BD73" s="5"/>
+      <c r="BE73" s="5"/>
+      <c r="BF73" s="5"/>
+      <c r="BG73" s="5"/>
+      <c r="BH73" s="5"/>
+      <c r="BI73" s="5"/>
+      <c r="BJ73" s="5"/>
+      <c r="BK73" s="5"/>
+      <c r="BL73" s="5"/>
+      <c r="BM73" s="5"/>
+      <c r="BN73" s="5"/>
+      <c r="BO73" s="5"/>
+      <c r="BP73" s="5"/>
+      <c r="BQ73" s="6"/>
+      <c r="CB73" s="5"/>
+      <c r="CC73" s="6"/>
+    </row>
+    <row r="74" spans="4:81" ht="12" customHeight="1">
       <c r="D74" s="7"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -6082,8 +7808,44 @@
       <c r="AI74" s="8"/>
       <c r="AJ74" s="8"/>
       <c r="AK74" s="9"/>
-    </row>
-    <row r="75" spans="4:37" ht="12" customHeight="1">
+      <c r="AV74" s="4"/>
+      <c r="AW74" s="5"/>
+      <c r="AX74" s="5"/>
+      <c r="AY74" s="5"/>
+      <c r="AZ74" s="5"/>
+      <c r="BA74" s="5"/>
+      <c r="BB74" s="5"/>
+      <c r="BC74" s="5"/>
+      <c r="BD74" s="5"/>
+      <c r="BE74" s="5"/>
+      <c r="BF74" s="5"/>
+      <c r="BG74" s="5"/>
+      <c r="BH74" s="5"/>
+      <c r="BI74" s="5"/>
+      <c r="BJ74" s="5"/>
+      <c r="BK74" s="5"/>
+      <c r="BL74" s="5"/>
+      <c r="BM74" s="5"/>
+      <c r="BN74" s="5"/>
+      <c r="BO74" s="5"/>
+      <c r="BP74" s="5"/>
+      <c r="BQ74" s="5"/>
+      <c r="BR74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS74" s="2"/>
+      <c r="BT74" s="2"/>
+      <c r="BU74" s="2"/>
+      <c r="BV74" s="2"/>
+      <c r="BW74" s="2"/>
+      <c r="BX74" s="2"/>
+      <c r="BY74" s="2"/>
+      <c r="BZ74" s="2"/>
+      <c r="CA74" s="2"/>
+      <c r="CB74" s="2"/>
+      <c r="CC74" s="3"/>
+    </row>
+    <row r="75" spans="4:81" ht="12" customHeight="1">
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -6106,15 +7868,15 @@
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA75" s="36"/>
+      <c r="Z75" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA75" s="41"/>
       <c r="AB75" s="2"/>
-      <c r="AC75" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD75" s="36"/>
+      <c r="AC75" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD75" s="41"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
@@ -6122,8 +7884,22 @@
       <c r="AI75" s="2"/>
       <c r="AJ75" s="2"/>
       <c r="AK75" s="3"/>
-    </row>
-    <row r="76" spans="4:37" ht="12" customHeight="1">
+      <c r="AV75" s="4"/>
+      <c r="AW75" s="5"/>
+      <c r="BR75" s="7"/>
+      <c r="BS75" s="8"/>
+      <c r="BT75" s="8"/>
+      <c r="BU75" s="8"/>
+      <c r="BV75" s="8"/>
+      <c r="BW75" s="8"/>
+      <c r="BX75" s="8"/>
+      <c r="BY75" s="8"/>
+      <c r="BZ75" s="8"/>
+      <c r="CA75" s="8"/>
+      <c r="CB75" s="8"/>
+      <c r="CC75" s="9"/>
+    </row>
+    <row r="76" spans="4:81" ht="12" customHeight="1">
       <c r="D76" s="7"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -6146,11 +7922,11 @@
       <c r="W76" s="8"/>
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
-      <c r="Z76" s="37"/>
-      <c r="AA76" s="38"/>
+      <c r="Z76" s="42"/>
+      <c r="AA76" s="43"/>
       <c r="AB76" s="8"/>
-      <c r="AC76" s="37"/>
-      <c r="AD76" s="38"/>
+      <c r="AC76" s="42"/>
+      <c r="AD76" s="43"/>
       <c r="AE76" s="8"/>
       <c r="AF76" s="8"/>
       <c r="AG76" s="8"/>
@@ -6158,8 +7934,24 @@
       <c r="AI76" s="8"/>
       <c r="AJ76" s="8"/>
       <c r="AK76" s="9"/>
-    </row>
-    <row r="77" spans="4:37" ht="12" customHeight="1">
+      <c r="AV76" s="4"/>
+      <c r="AW76" s="5"/>
+      <c r="BR76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS76" s="2"/>
+      <c r="BT76" s="2"/>
+      <c r="BU76" s="2"/>
+      <c r="BV76" s="2"/>
+      <c r="BW76" s="2"/>
+      <c r="BX76" s="2"/>
+      <c r="BY76" s="2"/>
+      <c r="BZ76" s="2"/>
+      <c r="CA76" s="2"/>
+      <c r="CB76" s="2"/>
+      <c r="CC76" s="3"/>
+    </row>
+    <row r="77" spans="4:81" ht="12" customHeight="1">
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -6194,8 +7986,22 @@
       <c r="AI77" s="2"/>
       <c r="AJ77" s="2"/>
       <c r="AK77" s="3"/>
-    </row>
-    <row r="78" spans="4:37" ht="12" customHeight="1">
+      <c r="AV77" s="4"/>
+      <c r="AW77" s="5"/>
+      <c r="BR77" s="7"/>
+      <c r="BS77" s="8"/>
+      <c r="BT77" s="8"/>
+      <c r="BU77" s="8"/>
+      <c r="BV77" s="8"/>
+      <c r="BW77" s="8"/>
+      <c r="BX77" s="8"/>
+      <c r="BY77" s="8"/>
+      <c r="BZ77" s="8"/>
+      <c r="CA77" s="8"/>
+      <c r="CB77" s="8"/>
+      <c r="CC77" s="9"/>
+    </row>
+    <row r="78" spans="4:81" ht="12" customHeight="1">
       <c r="D78" s="4"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -6204,27 +8010,27 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
-      <c r="Q78" s="41"/>
-      <c r="R78" s="41"/>
-      <c r="S78" s="41"/>
-      <c r="T78" s="41"/>
-      <c r="U78" s="41"/>
-      <c r="V78" s="41"/>
-      <c r="W78" s="41"/>
-      <c r="X78" s="41"/>
-      <c r="Y78" s="41"/>
-      <c r="Z78" s="41"/>
-      <c r="AA78" s="41"/>
-      <c r="AB78" s="41"/>
-      <c r="AC78" s="41"/>
-      <c r="AD78" s="36"/>
+      <c r="L78" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="46"/>
+      <c r="R78" s="46"/>
+      <c r="S78" s="46"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="46"/>
+      <c r="V78" s="46"/>
+      <c r="W78" s="46"/>
+      <c r="X78" s="46"/>
+      <c r="Y78" s="46"/>
+      <c r="Z78" s="46"/>
+      <c r="AA78" s="46"/>
+      <c r="AB78" s="46"/>
+      <c r="AC78" s="46"/>
+      <c r="AD78" s="41"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
@@ -6232,8 +8038,15 @@
       <c r="AI78" s="5"/>
       <c r="AJ78" s="5"/>
       <c r="AK78" s="6"/>
-    </row>
-    <row r="79" spans="4:37" ht="12" customHeight="1">
+      <c r="AV78" s="4"/>
+      <c r="AW78" s="5"/>
+      <c r="BR78" s="1"/>
+      <c r="BS78" s="2"/>
+      <c r="BT78" s="2"/>
+      <c r="BU78" s="2"/>
+      <c r="CC78" s="3"/>
+    </row>
+    <row r="79" spans="4:81" ht="12" customHeight="1">
       <c r="D79" s="4"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -6242,25 +8055,25 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="42"/>
-      <c r="P79" s="42"/>
-      <c r="Q79" s="42"/>
-      <c r="R79" s="42"/>
-      <c r="S79" s="42"/>
-      <c r="T79" s="42"/>
-      <c r="U79" s="42"/>
-      <c r="V79" s="42"/>
-      <c r="W79" s="42"/>
-      <c r="X79" s="42"/>
-      <c r="Y79" s="42"/>
-      <c r="Z79" s="42"/>
-      <c r="AA79" s="42"/>
-      <c r="AB79" s="42"/>
-      <c r="AC79" s="42"/>
-      <c r="AD79" s="38"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
+      <c r="S79" s="47"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
+      <c r="X79" s="47"/>
+      <c r="Y79" s="47"/>
+      <c r="Z79" s="47"/>
+      <c r="AA79" s="47"/>
+      <c r="AB79" s="47"/>
+      <c r="AC79" s="47"/>
+      <c r="AD79" s="43"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
@@ -6268,8 +8081,17 @@
       <c r="AI79" s="5"/>
       <c r="AJ79" s="5"/>
       <c r="AK79" s="6"/>
-    </row>
-    <row r="80" spans="4:37" ht="12" customHeight="1">
+      <c r="AV79" s="4"/>
+      <c r="AW79" s="5"/>
+      <c r="BR79" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS79" s="5"/>
+      <c r="BT79" s="5"/>
+      <c r="BU79" s="5"/>
+      <c r="CC79" s="6"/>
+    </row>
+    <row r="80" spans="4:81" ht="12" customHeight="1">
       <c r="D80" s="4"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -6304,8 +8126,15 @@
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
       <c r="AK80" s="6"/>
-    </row>
-    <row r="81" spans="4:37" ht="12" customHeight="1">
+      <c r="AV80" s="4"/>
+      <c r="AW80" s="5"/>
+      <c r="BR80" s="4"/>
+      <c r="BS80" s="5"/>
+      <c r="BT80" s="5"/>
+      <c r="BU80" s="5"/>
+      <c r="CC80" s="6"/>
+    </row>
+    <row r="81" spans="4:81" ht="12" customHeight="1">
       <c r="D81" s="7"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
@@ -6340,10 +8169,128 @@
       <c r="AI81" s="8"/>
       <c r="AJ81" s="8"/>
       <c r="AK81" s="9"/>
+      <c r="AV81" s="4"/>
+      <c r="AW81" s="5"/>
+      <c r="BR81" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS81" s="46"/>
+      <c r="BT81" s="46"/>
+      <c r="BU81" s="41"/>
+      <c r="BX81" s="45">
+        <v>2017</v>
+      </c>
+      <c r="BY81" s="46"/>
+      <c r="BZ81" s="41"/>
+      <c r="CC81" s="6"/>
+    </row>
+    <row r="82" spans="4:81" ht="12" customHeight="1">
+      <c r="AV82" s="4"/>
+      <c r="AW82" s="5"/>
+      <c r="BR82" s="42"/>
+      <c r="BS82" s="47"/>
+      <c r="BT82" s="47"/>
+      <c r="BU82" s="43"/>
+      <c r="BX82" s="42"/>
+      <c r="BY82" s="47"/>
+      <c r="BZ82" s="43"/>
+      <c r="CC82" s="6"/>
+    </row>
+    <row r="83" spans="4:81" ht="12" customHeight="1">
+      <c r="AV83" s="4"/>
+      <c r="AW83" s="5"/>
+      <c r="BR83" s="4"/>
+      <c r="BS83" s="5"/>
+      <c r="BT83" s="5"/>
+      <c r="BU83" s="5"/>
+      <c r="CC83" s="6"/>
+    </row>
+    <row r="84" spans="4:81" ht="12" customHeight="1">
+      <c r="AV84" s="4"/>
+      <c r="AW84" s="5"/>
+      <c r="BR84" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS84" s="46"/>
+      <c r="BT84" s="41"/>
+      <c r="BU84" s="5"/>
+      <c r="BX84" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY84" s="41"/>
+      <c r="CC84" s="6"/>
+    </row>
+    <row r="85" spans="4:81" ht="12" customHeight="1">
+      <c r="AV85" s="4"/>
+      <c r="AW85" s="5"/>
+      <c r="BR85" s="42"/>
+      <c r="BS85" s="47"/>
+      <c r="BT85" s="43"/>
+      <c r="BU85" s="5"/>
+      <c r="BX85" s="42"/>
+      <c r="BY85" s="43"/>
+      <c r="CC85" s="6"/>
+    </row>
+    <row r="86" spans="4:81" ht="12" customHeight="1">
+      <c r="AV86" s="4"/>
+      <c r="AW86" s="5"/>
+      <c r="BR86" s="4"/>
+      <c r="BS86" s="5"/>
+      <c r="BT86" s="5"/>
+      <c r="BU86" s="5"/>
+      <c r="CC86" s="6"/>
+    </row>
+    <row r="87" spans="4:81" ht="12" customHeight="1">
+      <c r="AV87" s="4"/>
+      <c r="AW87" s="5"/>
+      <c r="BR87" s="4"/>
+      <c r="BS87" s="5"/>
+      <c r="BT87" s="5"/>
+      <c r="BU87" s="5"/>
+      <c r="CC87" s="6"/>
+    </row>
+    <row r="88" spans="4:81" ht="12" customHeight="1">
+      <c r="AV88" s="7"/>
+      <c r="AW88" s="8"/>
+      <c r="AX88" s="8"/>
+      <c r="AY88" s="8"/>
+      <c r="AZ88" s="8"/>
+      <c r="BA88" s="8"/>
+      <c r="BB88" s="8"/>
+      <c r="BC88" s="8"/>
+      <c r="BD88" s="8"/>
+      <c r="BE88" s="8"/>
+      <c r="BF88" s="8"/>
+      <c r="BG88" s="8"/>
+      <c r="BH88" s="8"/>
+      <c r="BI88" s="8"/>
+      <c r="BJ88" s="8"/>
+      <c r="BK88" s="8"/>
+      <c r="BL88" s="8"/>
+      <c r="BM88" s="8"/>
+      <c r="BN88" s="8"/>
+      <c r="BO88" s="8"/>
+      <c r="BP88" s="8"/>
+      <c r="BQ88" s="8"/>
+      <c r="BR88" s="7"/>
+      <c r="BS88" s="8"/>
+      <c r="BT88" s="8"/>
+      <c r="BU88" s="8"/>
+      <c r="BV88" s="8"/>
+      <c r="BW88" s="8"/>
+      <c r="BX88" s="8"/>
+      <c r="BY88" s="8"/>
+      <c r="BZ88" s="8"/>
+      <c r="CA88" s="8"/>
+      <c r="CB88" s="8"/>
+      <c r="CC88" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="AZ11:BC13"/>
+  <mergeCells count="37">
+    <mergeCell ref="BR81:BU82"/>
+    <mergeCell ref="BX81:BZ82"/>
+    <mergeCell ref="BR84:BT85"/>
+    <mergeCell ref="BX84:BY85"/>
     <mergeCell ref="AE1:AG2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="AO1:AR2"/>
@@ -6354,19 +8301,29 @@
     <mergeCell ref="AL3:AN4"/>
     <mergeCell ref="AO3:AR4"/>
     <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="Z75:AA76"/>
-    <mergeCell ref="AC75:AD76"/>
-    <mergeCell ref="L78:AD79"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="AZ11:BC13"/>
     <mergeCell ref="A1:H4"/>
     <mergeCell ref="I1:R4"/>
     <mergeCell ref="S1:U2"/>
     <mergeCell ref="V1:AD2"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="AW37:BT38"/>
+    <mergeCell ref="AW39:BD40"/>
+    <mergeCell ref="Z75:AA76"/>
+    <mergeCell ref="AC75:AD76"/>
+    <mergeCell ref="L78:AD79"/>
+    <mergeCell ref="BR47:CC48"/>
+    <mergeCell ref="BS57:BT58"/>
+    <mergeCell ref="BU57:BV58"/>
+    <mergeCell ref="BW57:BX58"/>
+    <mergeCell ref="BR65:BX66"/>
+    <mergeCell ref="BR67:CC68"/>
+    <mergeCell ref="BR71:CC72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
